--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc204_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -622,10 +646,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -669,28 +693,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -715,28 +739,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1114,10 +1138,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1161,28 +1185,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1207,28 +1231,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1461,10 +1485,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1508,28 +1532,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1554,28 +1578,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1837,10 +1861,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K59" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1884,28 +1908,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1930,28 +1954,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2271,10 +2295,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2318,28 +2342,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2364,28 +2388,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2618,10 +2642,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="K86" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2665,28 +2689,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2711,28 +2735,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3110,10 +3134,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="J103" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="K103" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3157,28 +3181,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3203,28 +3227,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3428,10 +3452,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="J114" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3475,28 +3499,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3521,28 +3545,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3804,10 +3828,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="J127" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K127" s="2" t="s">
+      <c r="K127" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3851,28 +3875,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3897,28 +3921,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4209,10 +4233,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4256,28 +4280,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4302,28 +4326,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4440,10 +4464,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J149" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="K149" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4487,28 +4511,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4533,28 +4557,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4729,10 +4753,10 @@
       <c r="I159">
         <f>((C159-C158)^2+(D159- D158)^2)^.5</f>
       </c>
-      <c r="J159" s="2" t="s">
+      <c r="J159" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L159" t="n">
@@ -4776,28 +4800,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="2">
+      <c r="A161" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="6">
         <v>11</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4822,28 +4846,28 @@
       </c>
     </row>
     <row r="163">
-      <c r="B163" t="s" s="2">
+      <c r="B163" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C163" t="s" s="2">
+      <c r="C163" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D163" t="s" s="2">
+      <c r="D163" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E163" t="s" s="2">
+      <c r="E163" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F163" t="s" s="2">
+      <c r="F163" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G163" t="s" s="2">
+      <c r="G163" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H163" t="s" s="2">
+      <c r="H163" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I163" t="s" s="2">
+      <c r="I163" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4931,10 +4955,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K166" s="2" t="s">
+      <c r="K166" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
